--- a/DataBase/SampleData.xlsx
+++ b/DataBase/SampleData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s512094\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s512094\source\repos\ComputerScienceInternalAssessment\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD5C057-6C98-4F08-A5A9-477902B62AF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55520C89-0453-4FDA-9515-40A6AA4E1CB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{32671B81-EB08-4FD8-953D-7FC436FB90B7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>FirstName</t>
   </si>
@@ -48,30 +48,12 @@
     <t>M</t>
   </si>
   <si>
-    <t>Bat</t>
-  </si>
-  <si>
     <t>Man</t>
   </si>
   <si>
-    <t>Princess</t>
-  </si>
-  <si>
-    <t>Peach</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>Leia</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Sparrow</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
@@ -97,6 +79,51 @@
   </si>
   <si>
     <t>Heart</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>MeetName</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>50frGT</t>
+  </si>
+  <si>
+    <t>100frGT</t>
+  </si>
+  <si>
+    <t>200frGT</t>
+  </si>
+  <si>
+    <t>500frGT</t>
+  </si>
+  <si>
+    <t>100flGT</t>
+  </si>
+  <si>
+    <t>100bkGT</t>
+  </si>
+  <si>
+    <t>100brGT</t>
+  </si>
+  <si>
+    <t>200IMGT</t>
+  </si>
+  <si>
+    <t>EventName</t>
+  </si>
+  <si>
+    <t>RabbitSprintOff</t>
+  </si>
+  <si>
+    <t>50 Free</t>
+  </si>
+  <si>
+    <t>12_19_23</t>
   </si>
 </sst>
 </file>
@@ -132,8 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BABD66-672F-4DD6-BEE0-EDA1FA0AE3AF}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +498,44 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -484,68 +549,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>20.5</v>
+      </c>
+      <c r="F3">
+        <v>49.82</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.1450231481481483E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.0685185185185186E-3</v>
+      </c>
+      <c r="I3">
+        <v>57.29</v>
+      </c>
+      <c r="J3">
+        <v>58.83</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7.2719907407407401E-4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.3891203703703704E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4">
+        <v>26.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
       </c>
       <c r="C7">
         <v>9</v>
@@ -554,12 +603,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -568,12 +617,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -582,35 +631,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>